--- a/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>003842</t>
-  </si>
-  <si>
-    <t>001743</t>
-  </si>
-  <si>
-    <t>003843</t>
-  </si>
-  <si>
-    <t>004320</t>
-  </si>
-  <si>
-    <t>中邮景泰灵活配置混合A</t>
-  </si>
-  <si>
-    <t>诺安优选回报灵活配置混合</t>
-  </si>
-  <si>
-    <t>中邮景泰灵活配置混合C</t>
-  </si>
-  <si>
-    <t>前海开源沪港深乐享生活灵活配置混合</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>26.38</t>
-  </si>
-  <si>
-    <t>93.10</t>
-  </si>
-  <si>
-    <t>66.16</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>0.0464</t>
-  </si>
-  <si>
-    <t>0.0354</t>
-  </si>
-  <si>
-    <t>0.0144</t>
-  </si>
-  <si>
-    <t>0.0076</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,597 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.7</v>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1295,13 +1338,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.61</v>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.7</v>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1862,13 +1927,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004320</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深乐享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>66.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,22 +615,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>77.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4679</t>
+          <t>0.3855</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -751,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010220</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合A</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2995</t>
+          <t>0.2441</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -789,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519056</t>
+          <t>010220</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通内需热点混合</t>
+          <t>海富通消费核心资产混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2284</t>
+          <t>0.2237</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -827,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010421</t>
+          <t>519056</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通消费优选混合A</t>
+          <t>海富通内需热点混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1770</t>
+          <t>0.1932</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -875,26 +767,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.79</t>
+          <t>77.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1708</t>
+          <t>0.1493</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -903,32 +795,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001809</t>
+          <t>010421</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
+          <t>海富通消费优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0905</t>
+          <t>0.0851</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -941,32 +833,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004636</t>
+          <t>010221</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
+          <t>海富通消费核心资产混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -979,32 +871,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002871</t>
+          <t>010422</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票A</t>
+          <t>海富通消费优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0607</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1017,226 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010221</t>
+          <t>004320</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合C</t>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>88.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0425</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010422</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通消费优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004320</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源沪港深乐享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1563,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.73</t>
+          <t>77.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3855</t>
+          <t>0.4679</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1889,36 +1591,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>010220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>海富通消费核心资产混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2441</t>
+          <t>0.2995</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1927,36 +1629,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010220</t>
+          <t>519056</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合A</t>
+          <t>海富通内需热点混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2237</t>
+          <t>0.2284</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1965,36 +1667,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519056</t>
+          <t>010421</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通内需热点混合</t>
+          <t>海富通消费优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>92.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1932</t>
+          <t>0.1770</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2013,26 +1715,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.73</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1493</t>
+          <t>0.1708</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2041,32 +1743,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010421</t>
+          <t>001809</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通消费优选混合A</t>
+          <t>中信建投智信物联网灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0851</t>
+          <t>0.0905</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2079,32 +1781,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010221</t>
+          <t>004636</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合C</t>
+          <t>中信建投智信物联网灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0739</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2117,32 +1819,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010422</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海富通消费优选混合C</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2155,36 +1857,226 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>004320</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>前海开源沪港深乐享生活灵活配置混合</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2198,96 +2090,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.61</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.7</v>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002881-美格智能.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -549,6 +566,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1496,7 +2291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2084,7 +2879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
